--- a/Co-Evaluations-DataScience.xlsx
+++ b/Co-Evaluations-DataScience.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Grille évaluation Module Data Science – M1 data/IA – Ynov Aix février 2026</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maitrise du sujet, aller au bout de son objectif (meme audela de ce qu'on a vu )</t>
+  </si>
+  <si>
+    <t>Corentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tituan</t>
   </si>
 </sst>
 </file>
@@ -691,7 +697,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
       <selection activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -936,6 +942,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" ht="14.65" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="14.65" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.052778" bottom="1.052778" header="0.78750000000000009" footer="0.78750000000000009"/>
